--- a/资料整理/论文.xlsx
+++ b/资料整理/论文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,13 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用实例</t>
-  </si>
-  <si>
-    <t>应用实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个基于Web的工作流引擎及其实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,7 +120,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">基于J2EE架构的工作流引擎的分析与设计
+    <t>当前,在对工作流引擎的开发应用中,存在着追求功能全面的趋势,这种趋势也产生了一些问题,譬如,具有工作流特征的应用种类繁多,引入复杂的工作流引擎往往使得开发和使用工作流系统的成本都难以
+控制,这样的产品并不适用于中小型的应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发周期较短,可移植性强,扩展性好,在针对特定的一些中小型应用时,是一种良好的解决方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过实际JBPM工作流应用,得到了JBPM工作流引擎到J2EEWeb应用中的整合方法。为开发基于J2EE工作流的电子商务、办公、政务系统提出了一套切实可行的整合方案。具有的一定实际应用价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂度低，不适合非常大型的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有应用实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于J2EE架构的工作流引擎的分析与设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基于J2EE开源工作流引擎JBPM的设计实现
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -616,6 +642,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -631,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144" x14ac:dyDescent="0.25">
@@ -652,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
@@ -669,33 +698,56 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
